--- a/shotlog_shhg_2018_single_sorted.xlsx
+++ b/shotlog_shhg_2018_single_sorted.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="162">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -805,15 +805,15 @@
   </sheetPr>
   <dimension ref="A1:AL746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C321" activeCellId="0" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="10.53"/>
@@ -822,7 +822,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="3.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.17"/>
@@ -15015,6 +15015,9 @@
       <c r="A317" s="0" t="n">
         <v>20190118</v>
       </c>
+      <c r="B317" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="D317" s="15" t="n">
         <v>98</v>
       </c>
@@ -15057,6 +15060,9 @@
       <c r="A318" s="0" t="n">
         <v>20190118</v>
       </c>
+      <c r="B318" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="D318" s="0" t="n">
         <v>99</v>
       </c>
@@ -15082,6 +15088,9 @@
       <c r="M318" s="10" t="n">
         <f aca="false">(U318+71231)*5</f>
         <v>0</v>
+      </c>
+      <c r="N318" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="O318" s="0" t="n">
         <f aca="false">M318*0.0033</f>
@@ -15098,6 +15107,9 @@
       <c r="A319" s="0" t="n">
         <v>20190118</v>
       </c>
+      <c r="B319" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="D319" s="15" t="n">
         <v>100</v>
       </c>
@@ -15120,6 +15132,9 @@
       <c r="M319" s="10" t="n">
         <f aca="false">(U319+71231)*5</f>
         <v>0</v>
+      </c>
+      <c r="N319" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="O319" s="0" t="n">
         <f aca="false">M319*0.0033</f>
@@ -33587,6 +33602,7 @@
         <f aca="false">M726*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q726" s="10"/>
       <c r="S726" s="11" t="n">
         <v>7442</v>
       </c>
@@ -33663,6 +33679,7 @@
         <f aca="false">M727*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q727" s="10"/>
       <c r="U727" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33718,6 +33735,7 @@
         <f aca="false">M728*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q728" s="10"/>
       <c r="U728" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33770,6 +33788,7 @@
         <f aca="false">M729*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q729" s="10"/>
       <c r="U729" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33825,6 +33844,7 @@
         <f aca="false">M730*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q730" s="10"/>
       <c r="U730" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33877,6 +33897,7 @@
         <f aca="false">M731*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q731" s="10"/>
       <c r="U731" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33929,6 +33950,7 @@
         <f aca="false">M732*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q732" s="10"/>
       <c r="U732" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -33981,6 +34003,7 @@
         <f aca="false">M733*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q733" s="10"/>
       <c r="U733" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34033,6 +34056,7 @@
         <f aca="false">M734*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q734" s="10"/>
       <c r="U734" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34085,6 +34109,7 @@
         <f aca="false">M735*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q735" s="10"/>
       <c r="U735" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34137,6 +34162,7 @@
         <f aca="false">M736*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q736" s="10"/>
       <c r="U736" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34189,6 +34215,7 @@
         <f aca="false">M737*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q737" s="10"/>
       <c r="U737" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34241,6 +34268,7 @@
         <f aca="false">M738*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q738" s="10"/>
       <c r="U738" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34293,6 +34321,7 @@
         <f aca="false">M739*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q739" s="10"/>
       <c r="U739" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34348,6 +34377,7 @@
         <f aca="false">M740*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q740" s="10"/>
       <c r="U740" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34400,6 +34430,7 @@
         <f aca="false">M741*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q741" s="10"/>
       <c r="U741" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34452,6 +34483,7 @@
         <f aca="false">M742*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q742" s="10"/>
       <c r="U742" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34507,6 +34539,7 @@
         <f aca="false">M743*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q743" s="10"/>
       <c r="U743" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34565,6 +34598,7 @@
         <f aca="false">M744*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q744" s="10"/>
       <c r="U744" s="0" t="n">
         <v>-71231</v>
       </c>
@@ -34616,6 +34650,7 @@
         <f aca="false">M745*0.0033</f>
         <v>0</v>
       </c>
+      <c r="Q745" s="10"/>
       <c r="U745" s="0" t="n">
         <v>-71231</v>
       </c>
